--- a/Library/CloudStorage/OneDrive-Personal/python trabalho/dados_processados.xlsx
+++ b/Library/CloudStorage/OneDrive-Personal/python trabalho/dados_processados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a232cccd609df96/python trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2B59193F539FCE355541DEF050781030758BFDF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC3451B6-B322-CF47-8AEA-B0ABACE7A4BF}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_59619A2F538F465F0DC2C0F0505ED87656CC94CE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE020CC2-64FA-3E4D-9FE5-076037BA22B2}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="-1540" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24120" yWindow="1040" windowWidth="50900" windowHeight="20800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados Processados" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="425">
   <si>
     <t>Itens</t>
   </si>
@@ -37,148 +37,1264 @@
     <t>Unidade de Fornecimento</t>
   </si>
   <si>
-    <t>9 - Caneta marca-texto</t>
-  </si>
-  <si>
-    <t>Caneta Marca-Texto Material: Plástico, Tipo Ponta: Fluorescente, Cor: Amarela</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>3,26</t>
+    <t>1 - Adesivo uso geral</t>
+  </si>
+  <si>
+    <t>Adesivo Uso Geral Apresentação: Líquido Incolor, Composição: À Base De Polietrafluoretileno, Características Adicionais: Colagem Instantânea, Aplicação: Colagem De Porcelana, Metal, Borracha, Couro, Made</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>Unidade</t>
   </si>
   <si>
-    <t>10 - Cola</t>
-  </si>
-  <si>
-    <t>Cola Composição: Base Água, Cor: Branca, Aplicação: Papel E Madeira, Tipo: Líquido</t>
+    <t>2 - Agenda</t>
+  </si>
+  <si>
+    <t>Agenda Tipo: Anual, Quantidade Folhas: 200UN, Revestimento Capa: Percalina, Gramatura: 63G/M2, Comprimento: 265MM, Largura: 180MM, Tipo Encadernação: Costurada E Colada, Tipo Papel Miolo: Ofsete</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>3 - Agenda</t>
+  </si>
+  <si>
+    <t>Agenda Tipo: Telefônica, Quantidade Folhas: 80UN, Revestimento Capa: Papelão, Gramatura: 75G/M2, Largura: 139MM, Tipo Encadernação: Espiral Metal, Altura: 210MM</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4 - Agenda</t>
+  </si>
+  <si>
+    <t>Agenda Tipo: Permanente, Quantidade Folhas: 386FL, Revestimento Capa: Curvim, Gramatura: 56G/M2, Comprimento: 200MM, Largura: 148MM, Tipo Encadernação: Costurada E Colada, Tipo Papel Miolo: Apergaminhado, Características Adicionais: Sem Indicação Do Ano Civil</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>5 - Alfinete mapa</t>
+  </si>
+  <si>
+    <t>Alfinete Mapa Material: Metal, Tratamento Superficial: Galvanizado, Material Cabeça: Plástico, Formato Cabeça: Redondo, Cor: Preta, Comprimento: 15MM, Aplicação: Mapa</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>6 - Almofada carimbo</t>
+  </si>
+  <si>
+    <t>Almofada Carimbo Material Caixa: Metal, Material Almofada: Esponja Absorvente, Comprimento: 110MM, Largura: 70MM</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>7 - Apagador quadro branco</t>
+  </si>
+  <si>
+    <t>Apagador Quadro Branco Material Base: Feltro, Material Corpo: Plástico, Comprimento: 15CM, Largura: 6CM, Altura: 5CM</t>
+  </si>
+  <si>
+    <t>8 - Apontador lápis</t>
+  </si>
+  <si>
+    <t>Apontador Lápis Material: Metal, Tipo: Escolar, Tamanho: Pequeno, Quantidade Furos: 1</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>9 - Caixa arquivo</t>
+  </si>
+  <si>
+    <t>Caixa Arquivo Material: Plástico Corrugado, Dimensão (C X L X A): 36,0 X 13,5 X 25,0CM, Cor: Colorido, Impressão: Padrão, Características Adicionais: Com Trava</t>
+  </si>
+  <si>
+    <t>614</t>
+  </si>
+  <si>
+    <t>10 - Balão festa</t>
+  </si>
+  <si>
+    <t>Balão Festa Material: Borracha Natural, Látex, Cor: Liso, C/ Cor Variada, Tamanho: Nº 9</t>
+  </si>
+  <si>
+    <t>11 - Barbante algodão</t>
+  </si>
+  <si>
+    <t>Barbante Algodão Quantidade Fios: 8UN, Acabamento Superficial: Crú, Cor: Branca</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>12 - Bloco recado</t>
+  </si>
+  <si>
+    <t>Bloco Recado Material: Papel, Cor: Amarela, Largura: 76MM, Comprimento: 102MM, Características Adicionais: Auto-Adesivo, Removível, Post-It, Quantidade Folhas: 100UN</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>13 - Bloco recado</t>
+  </si>
+  <si>
+    <t>Bloco Recado Material: Celulose Vegetal, Cor: Variada, Largura: 38MM, Comprimento: 50MM, Tipo: Removível, Características Adicionais: Auto-Adesivo, Post It, Quantidade Folhas: 100UN</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>14 - Bobina máquina calcular</t>
+  </si>
+  <si>
+    <t>Bobina Máquina Calcular Material: Papel Apergaminhado, Gramatura: 75G/M2, Cor: Branca, Largura: 57MM, Comprimento: 30M</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>15 - Bobina papel impressora</t>
+  </si>
+  <si>
+    <t>Bobina Papel Impressora Tipo Papel: Térmico, Cor: Branca, Comprimento: 30M, Largura: 76MM, Aplicação: Impressora Térmica</t>
+  </si>
+  <si>
+    <t>16 - Borracha apagadora escrita</t>
+  </si>
+  <si>
+    <t>Borracha Apagadora Escrita Material: Borracha, Comprimento: 32MM, Largura: 23MM, Altura: 8MM, Cor: Branca, Características Adicionais: Macia Sem Manchar Ou Danificar O Papel</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>17 - Borracha apagadora escrita</t>
+  </si>
+  <si>
+    <t>Borracha Apagadora Escrita Material: Borracha, Comprimento: 40MM, Largura: 20MM, Cor: Branca, Tipo: Macia, Material Capa: Plástico De Vinil, Cor Capa: Azul, Características Adicionais: Capa Plástica Protetora, Aplicação: Para Lápis</t>
   </si>
   <si>
     <t>150</t>
   </si>
   <si>
-    <t>3,05</t>
+    <t>18 - Cadeado</t>
+  </si>
+  <si>
+    <t>Cadeado Material: Latão Maciço, Material Haste: Aço Inoxidável, Cor: Vermelha, Altura: 20MM, Largura: 14MM, Características Adicionais: Capa Termoplástica / 2 Chaves</t>
+  </si>
+  <si>
+    <t>19 - Caderno</t>
+  </si>
+  <si>
+    <t>Caderno Material: Celulose Vegetal, Material Capa: Capa Dura, Comprimento: 210MM, Largura: 149MM, Quantidade Folhas: 48FL, Características Adicionais: Folhas Pautadas, Costurado 1/4</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>20 - Caderno</t>
+  </si>
+  <si>
+    <t>Caderno Tipo: Horizontal Meia Pauta, Material: Celulose Vegetal, Gramatura Folhas: 56G/M2, Gramatura Capa: 63G/M2, Material Capa: Plástico, Comprimento: 248MM, Largura: 190MM, Quantidade Folhas: 96FL, Características Adicionais: Brochura, Capa Dura Com Laminação Brilho</t>
+  </si>
+  <si>
+    <t>21 - Caderno</t>
+  </si>
+  <si>
+    <t>Caderno Material: Celulose Vegetal, Material Capa: Capa Dura, Comprimento: 280MM, Largura: 210MM, Quantidade Folhas: 96FL</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>22 - Caderno</t>
+  </si>
+  <si>
+    <t>Caderno Material: Celulose Vegetal, Material Capa: Capa Dura, Comprimento: 210MM, Largura: 148MM, Quantidade Folhas: 96FL, Características Adicionais: Folhas Pautadas, Brochura, Costurado 1/4</t>
+  </si>
+  <si>
+    <t>23 - Caderno</t>
+  </si>
+  <si>
+    <t>Caderno Material: Papel Ofsete, Material Capa: Capa Dura, Comprimento: 210MM, Largura: 150MM, Quantidade Folhas: 96FL, Características Adicionais: Espiral E Folhas Pautadas</t>
+  </si>
+  <si>
+    <t>24 - Caixa arquivo</t>
+  </si>
+  <si>
+    <t>Caixa Arquivo Material: Plástico Corrugado, Dimensão (C X L X A): 38,0 X 17,0 X 29,0CM, Cor: Colorido, Impressão: Padrão, Características Adicionais: Com Trava</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>25 - Caixa arquivo</t>
+  </si>
+  <si>
+    <t>Caixa Arquivo Material: Plástico Corrugado, Dimensão (C X L X A): 35,0 X 13,0 X 24,5CM, Cor: Colorido, Impressão: Padrão, Características Adicionais: Com Trava</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>26 - Calculadora eletrônica</t>
+  </si>
+  <si>
+    <t>Calculadora Eletrônica Número Dígitos: 12UN, Tipo: Financeira, Fonte Alimentação: Solar/Bateria</t>
+  </si>
+  <si>
+    <t>27 - Calculadora eletrônica</t>
+  </si>
+  <si>
+    <t>Calculadora Eletrônica Número Dígitos: 12UN, Tipo: Mesa, Aplicação: Financeira, Fonte Alimentação: Eletricidade/Bivolt, Tensão: 110 / 220V, Características Adicionais: Impressão Bicolor, Fita Náilon, Cálculos De Taxas</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>28 - Calculadora eletrônica</t>
+  </si>
+  <si>
+    <t>Calculadora Eletrônica Número Dígitos: 8UN, Tipo: Mesa, Aplicação: Financeira, Fonte Alimentação: Bateria, Cor: Cinza, Comprimento: 157MM, Largura: 122MM, Altura: 34MM</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>29 - Caneta esferográfica</t>
+  </si>
+  <si>
+    <t>Caneta Esferográfica Material: Plástico, Formato Corpo: Sextavado, Material Ponta: Aço Inoxidável Com Esfera De Tungstênio, Tipo Escrita: Grossa, Cor Tinta: Azul</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>30 - Caneta esferográfica</t>
+  </si>
+  <si>
+    <t>Caneta Esferográfica Material: Plástico, Quantidade Cargas: 1UN, Material Ponta: Latão Com Esfera De Tungstênio, Tipo Escrita: Grossa, Cor Tinta: Preta, Características Adicionais: Material Transparente E Com Orifício Lateral</t>
+  </si>
+  <si>
+    <t>31 - Caneta esferográfica</t>
+  </si>
+  <si>
+    <t>Caneta Esferográfica Material: Plástico, Formato Corpo: Sextavado, Material Ponta: Aço Inoxidável Com Esfera De Tungstênio, Tipo Escrita: Grossa, Cor Tinta: Vermelha</t>
+  </si>
+  <si>
+    <t>32 - Caneta hidrográfica</t>
+  </si>
+  <si>
+    <t>Caneta Hidrográfica Material: Plástico, Material Ponta: Poliéster, Espessura Escrita: Fina, Cor Carga: Preta, Aplicação: Uso Geral, Características Adicionais: Corpo Cilíndrico/A Base D'Água/Ponta 0,4 Mm</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>33 - Caneta hidrográfica</t>
+  </si>
+  <si>
+    <t>Caneta Hidrográfica Material: Plástico, Material Ponta: Poliéster, Espessura Escrita: Fina, Cor Carga: Vermelha, Aplicação: Uso Geral, Características Adicionais: Corpo Cilíndrico/A Base D'Água/Ponta 0,4 Mm</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>34 - Caneta marca-texto</t>
+  </si>
+  <si>
+    <t>Caneta Marca-Texto Material: Plástico, Tipo Ponta: Chanfrada, Cor: Amarela, Características Adicionais: Traço 4 Mm</t>
+  </si>
+  <si>
+    <t>35 - Caneta hidrográfica</t>
+  </si>
+  <si>
+    <t>Caneta Hidrográfica Material: Plástico, Espessura Escrita: Fina, Cor Carga: Preta, Aplicação: Retroprojetor</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>36 - Papel carbono</t>
+  </si>
+  <si>
+    <t>Papel Carbono Material: Papel, Aplicação: Escrita Manual, Tipo: Monoface, Comprimento: 297MM, Largura: 210MM, Cor: Preta</t>
+  </si>
+  <si>
+    <t>37 - Papel cartolina</t>
+  </si>
+  <si>
+    <t>Papel Cartolina Material: Celulose Vegetal, Gramatura: 180G/M2, Cor: Diversas, Comprimento: 660MM, Largura: 500MM</t>
+  </si>
+  <si>
+    <t>38 - Chaveiro</t>
+  </si>
+  <si>
+    <t>Chaveiro Material: Alumínio, Tamanho: 2,50 X 4CM, Aplicação: Identificação Chaves, Características Adicionais: Área Livre Porta Etiqueta 3,5 Com X 2 Cm</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>39 - Clipe</t>
+  </si>
+  <si>
+    <t>Clipe Tratamento Superficial: Niquelado, Tamanho: 2, Material: Metal, Formato: Paralelo, Características Adicionais: Pintura Antiferrugem</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Caixa 500,00 G</t>
+  </si>
+  <si>
+    <t>40 - Clipe</t>
+  </si>
+  <si>
+    <t>Clipe Tratamento Superficial: Niquelado, Tamanho: 4, Material: Metal, Formato: Paralelo, Características Adicionais: Pintura Antiferrugem</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>41 - Clipe</t>
+  </si>
+  <si>
+    <t>Clipe Tratamento Superficial: Niquelado, Tamanho: 6, Material: Metal, Formato: Paralelo, Características Adicionais: Pintura Antiferrugem</t>
+  </si>
+  <si>
+    <t>42 - Clipe</t>
+  </si>
+  <si>
+    <t>Clipe Tratamento Superficial: Niquelado, Tamanho: 8, Material: Metal, Formato: Paralelo</t>
+  </si>
+  <si>
+    <t>43 - Clipe</t>
+  </si>
+  <si>
+    <t>Clipe Tratamento Superficial: Galvanizado, Tamanho: 1, Material: Metal, Formato: Trançado</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Caixa 12,00 UN</t>
+  </si>
+  <si>
+    <t>44 - Cola</t>
+  </si>
+  <si>
+    <t>Cola Composição: Base Glicerina, Cor: Branca, Características Adicionais: Atóxica, Tipo: Bastão</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Tubo 20,00 G</t>
+  </si>
+  <si>
+    <t>45 - Cola</t>
+  </si>
+  <si>
+    <t>Cola Composição: Polivinil Acetato - Pva, Cor: Branca, Aplicação: Papel, Tipo: Pastosa</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Frasco 1,00 L</t>
+  </si>
+  <si>
+    <t>46 - Cola</t>
+  </si>
+  <si>
+    <t>Cola Composição: Polivinil Acetato - Pva, Cor: Branca, Aplicação: Papel, Características Adicionais: Com Bico Aplicador / Atóxica / Lavável., Tipo: Pastosa</t>
+  </si>
+  <si>
+    <t>110</t>
   </si>
   <si>
     <t>Frasco 90,00 G</t>
   </si>
   <si>
-    <t>11 - Cola</t>
-  </si>
-  <si>
-    <t>Cola Composição: Polímero De Acetato De Polivinila E Aditivos, Cor: Branca, Aplicação: Papel, Características Adicionais: Validade Mínima De 1 Ano, Tipo: Pastosa</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>20,44</t>
-  </si>
-  <si>
-    <t>16 - Envelope</t>
-  </si>
-  <si>
-    <t>Envelope Material: Kraft, Modelo: Saco Padrão, Tamanho (C X L): 340 X 240MM, Cor: Parda, Gramatura: 80G/M2</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>0,75</t>
-  </si>
-  <si>
-    <t>19 - Fita adesiva</t>
+    <t>47 - Cola</t>
+  </si>
+  <si>
+    <t>Cola Composição: Cianiacrilato, Cor: Incolor, Aplicação: Vidro,Borracha,Plástico,Pvc,Metal,Acrílico,Náilon, Características Adicionais: Gel, Tipo: Instantânea, Apresentação: Embalagem 4g</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>48 - Cola</t>
+  </si>
+  <si>
+    <t>Cola Composição: Resina Sintética, Glicerina, Água E Conservantes, Cor: Branca, Aplicação: Papel, Características Adicionais: Atóxica, Tipo: Bastão</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>Tubo 10,00 G</t>
+  </si>
+  <si>
+    <t>49 - Cola</t>
+  </si>
+  <si>
+    <t>Cola Composição: Base Água, Aplicação: Tecidos Com Alto Poder De Adesividade, Características Adicionais: Para Fixacão De Gliter Ou Purpurina Em Diversos Ti, Tipo: Glitter, Apresentação: 900 Ml</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>50 - Cola</t>
+  </si>
+  <si>
+    <t>Cola Composição: Polivinil Acetato - Pva, Cor: Incolor, Aplicação: Isopor, Características Adicionais: Lavável, Não Tóxica, Tipo: Líquido</t>
+  </si>
+  <si>
+    <t>51 - Cola</t>
+  </si>
+  <si>
+    <t>Cola Composição: Polivinil Acetato - Pva, Características Adicionais: Peso 40g/Secagem Rápida/Atóxica, Tipo: Líquida</t>
+  </si>
+  <si>
+    <t>Frasco 40,00 G</t>
+  </si>
+  <si>
+    <t>52 - Cola</t>
+  </si>
+  <si>
+    <t>Embalagem 500,00 ML</t>
+  </si>
+  <si>
+    <t>53 - Cola</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>54 - Colchete Fixação</t>
+  </si>
+  <si>
+    <t>Colchete Fixação Material: Aço, Tratamento Superficial: Cromado, Tamanho: Nº 15</t>
+  </si>
+  <si>
+    <t>Caixa 72,00 UN</t>
+  </si>
+  <si>
+    <t>55 - Colchete Fixação</t>
+  </si>
+  <si>
+    <t>Colchete Fixação Material: Metal, Tratamento Superficial: Latonado, Tamanho: Nº 12, Aplicação: Processos</t>
+  </si>
+  <si>
+    <t>56 - Corretivo Líquido</t>
+  </si>
+  <si>
+    <t>Corretivo Líquido Material: Base D'Água - Secagem Rápida, Características Adicionais: Atóxico, Lavável, Inodoro</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Frasco 18,00 ML</t>
+  </si>
+  <si>
+    <t>57 - Cinta Elástica</t>
+  </si>
+  <si>
+    <t>Cinta Elástica Material: Borracha, Forma: Circular, Tamanho: 18, Cor: Amarela, Aplicação: Amarrar Numerário</t>
+  </si>
+  <si>
+    <t>Pacote 1,00 KG</t>
+  </si>
+  <si>
+    <t>58 - Espiral Encadernação</t>
+  </si>
+  <si>
+    <t>Espiral Encadernação Material: Pvc - Cloreto De Polivinila, Diâmetro: 14MM, Cor: Branca, Quantidade Folhas: 85</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>59 - Espiral Encadernação</t>
+  </si>
+  <si>
+    <t>60 - Envelope</t>
+  </si>
+  <si>
+    <t>Envelope Material: Offset, Modelo: Saco Padrão, Tamanho (C X L): 240 X 340MM, Cor: Branco, Gramatura: 75G/M2</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>61 - Envelope</t>
+  </si>
+  <si>
+    <t>Envelope Material: Sulfite, Modelo: Ofício, Tamanho (C X L): 230 X 115MM, Cor: Branco, Gramatura: 75G/M2</t>
+  </si>
+  <si>
+    <t>62 - Envelope</t>
+  </si>
+  <si>
+    <t>Envelope Material: Offset, Modelo: Ofício, Tamanho (C X L): 160 X 220MM, Cor: Branco, Gramatura: 90G/M2</t>
+  </si>
+  <si>
+    <t>63 - Envelope</t>
+  </si>
+  <si>
+    <t>Envelope Material: Kraft, Modelo: Saco Padrão, Tamanho (C X L): 240 X 340MM, Cor: Parda, Gramatura: 80G/M2</t>
+  </si>
+  <si>
+    <t>11050</t>
+  </si>
+  <si>
+    <t>64 - Envelope</t>
+  </si>
+  <si>
+    <t>Envelope Material: Offset, Modelo: Ofício, Tamanho (C X L): 114 X 229MM, Cor: Branco, Gramatura: 75G/M2, Características Adicionais: Impressão Personalizada</t>
+  </si>
+  <si>
+    <t>4020</t>
+  </si>
+  <si>
+    <t>65 - Envelope</t>
+  </si>
+  <si>
+    <t>Envelope Material: Kraft, Modelo: Saco Padrão, Tamanho (C X L): 250 X 180MM, Cor: Parda, Gramatura: 75G/M2</t>
+  </si>
+  <si>
+    <t>10050</t>
+  </si>
+  <si>
+    <t>66 - Envelope</t>
+  </si>
+  <si>
+    <t>Envelope Material: Offset, Modelo: Saco Comum, Tamanho (C X L): 370 X 470MM, Cor: Branco, Gramatura: 90G/M2</t>
+  </si>
+  <si>
+    <t>67 - Envelope</t>
+  </si>
+  <si>
+    <t>Envelope Material: Kraft, Modelo: Saco Comum, Tamanho (C X L): 335 X 230MM, Cor: Parda, Gramatura: 110G/M2</t>
+  </si>
+  <si>
+    <t>68 - Estilete</t>
+  </si>
+  <si>
+    <t>Estilete Tipo: Lâmina Retrátil, Espessura: 18MM, Material Corpo: Plástico, Características Adicionais: 1 Trava Automática E 1 Trava Manual</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>69 - Etiqueta auto-adesiva</t>
+  </si>
+  <si>
+    <t>Etiqueta Auto-Adesiva Material: Papel Alcalino, Cor: Rosa, Tipo Uso: Pasta Prontuário, Características Adicionais: Formato E Impressões Conforme Modelo, Tamanho: 4,50 X 4 Cm, Apresentação: Bobina Com 350 Unidades, Aplicação: Identificação, Quantidade Cores: 2</t>
+  </si>
+  <si>
+    <t>70 - Papel emborrachado</t>
+  </si>
+  <si>
+    <t>Papel Emborrachado Material: Borracha Eva, Comprimento: 60CM, Largura: 40CM, Espessura: 2MM, Padrão: Glitterizado, Cor: Variada</t>
+  </si>
+  <si>
+    <t>Folha</t>
+  </si>
+  <si>
+    <t>71 - Papel emborrachado</t>
+  </si>
+  <si>
+    <t>Papel Emborrachado Material: Borracha Eva, Comprimento: 60CM, Largura: 40CM, Espessura: 2CM, Padrão: Estampado, Aplicação: Confecção De Paineis</t>
+  </si>
+  <si>
+    <t>72 - Papel emborrachado</t>
+  </si>
+  <si>
+    <t>Papel Emborrachado Material: Borracha Eva, Comprimento: 60CM, Largura: 40CM, Padrão: Liso, Cor: Variada</t>
+  </si>
+  <si>
+    <t>73 - Extensão elétrica</t>
+  </si>
+  <si>
+    <t>Extensão Elétrica Tipo: Flexível, Comprimento: 10M, Componentes: 3 Tomadas Fêmeas E Plugue Terra, Tensão Nominal: 250V, Normas Técnicas: Nbr 14136, Corrente Nominal: 10A</t>
+  </si>
+  <si>
+    <t>74 - Extensão elétrica</t>
+  </si>
+  <si>
+    <t>Extensão Elétrica Comprimento: 5M, Formação Do Cabo: 2 X 0,75MM2, Características Adicionais: Cabo Pp Plano, Material: Termoplástico, Conexões: 1(Uma) Entrada 2p E Três Saídas 2p</t>
+  </si>
+  <si>
+    <t>75 - Extrator grampo</t>
+  </si>
+  <si>
+    <t>Extrator Grampo Material: Metal, Comprimento: 15CM, Largura: 2CM</t>
+  </si>
+  <si>
+    <t>76 - Extrator grampo</t>
+  </si>
+  <si>
+    <t>Extrator Grampo Material: Metal, Tipo: Espátula, Tratamento Superficial: Zincado, Comprimento: 145MM, Largura: 15MM</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>77 - Fita adesiva embalagem</t>
+  </si>
+  <si>
+    <t>Fita Adesiva Embalagem Material: Resina E Borracha Sintética, Comprimento: 33M, Largura: 12MM, Aplicação: Empacotamento Geral E Reforço Pacotes, Cor: Transparente</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>78 - Fita adesiva</t>
+  </si>
+  <si>
+    <t>Fita Adesiva Material: Acetato, Tipo: Dupla Face, Largura: 24MM, Comprimento: 30M, Cor: Incolor</t>
+  </si>
+  <si>
+    <t>79 - Fita adesiva</t>
   </si>
   <si>
     <t>Fita Adesiva Material: Polipropileno Transparente, Tipo: Monoface, Largura: 45MM, Comprimento: 50M, Cor: Incolor, Aplicação: Multiuso</t>
   </si>
   <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>6,93</t>
-  </si>
-  <si>
-    <t>24 - Papel Para Impressão Formatado</t>
-  </si>
-  <si>
-    <t>Papel Para Impressão Formatado Tipo: Sulfite/Apergaminhado/Ofício, Tamanho (C X L): 297 X 210MM, Gramatura: 75G/M2, Cor: Branco, Característica Adicional: Alvura Superior</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>26,72</t>
+    <t>255</t>
+  </si>
+  <si>
+    <t>80 - Fita adesiva</t>
+  </si>
+  <si>
+    <t>Fita Adesiva Material: Polipropileno Transparente, Tipo: Monoface, Largura: 12MM, Comprimento: 50M, Cor: Incolor</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>81 - Fita adesiva</t>
+  </si>
+  <si>
+    <t>Fita Adesiva Material: Filme Acetato "E", Tipo: Mágica, Largura: 12MM, Comprimento: 33M, Cor: Incolor, Aplicação: Multiuso, Características Adicionais: Com Arruela Plástica</t>
+  </si>
+  <si>
+    <t>82 - Fita impressão máquina calcular</t>
+  </si>
+  <si>
+    <t>Fita Impressão Máquina Calcular Material: Náilon, Largura: 13MM, Comprimento: 5M, Cor: Preta-Vermelha</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>83 - Corretivo fita</t>
+  </si>
+  <si>
+    <t>Corretivo Fita Material: Base De Poliacrilato, Comprimento: 10M, Largura: 4,20MM, Aplicação: Apagar Caneta Esferográfica</t>
+  </si>
+  <si>
+    <t>84 - Fita adesiva</t>
+  </si>
+  <si>
+    <t>Fita Adesiva Material: Crepe, Tipo: Monoface, Largura: 32MM, Comprimento: 50M, Cor: Branca, Aplicação: Multiuso</t>
+  </si>
+  <si>
+    <t>85 - Fita adesiva</t>
+  </si>
+  <si>
+    <t>Fita Adesiva Material: Polipropileno Reciclado, Tipo: Monoface, Largura: 50MM, Comprimento: 50M, Cor: Incolor, Aplicação: Multiuso, Características Adicionais: Auto-Adesiva</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>86 - Fita impressora</t>
+  </si>
+  <si>
+    <t>Fita Impressora Material: Náilon, Cor: Preta, Largura: 13MM, Comprimento: 10M, Tipo Impressora: Epson Lx 300</t>
+  </si>
+  <si>
+    <t>87 - Fita</t>
+  </si>
+  <si>
+    <t>Fita Material: Dorso Polietileno Prata/Trama Tecido Algodão, Largura: 45MM, Comprimento: 5M, Características Adicionais: Adesivo À Base Resina E Borracha, Aplicação: Ar Condicionado Split, Resistência Temperatura: Até 90°C</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>88 - Fita Sinalização</t>
+  </si>
+  <si>
+    <t>Fita Sinalização Comprimento: 200M, Largura: 7CM, Cor: Preta E Amarela, Características Adicionais: Formato Cores Em Diagonal, Zebrada</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Rolo 100,00 M</t>
+  </si>
+  <si>
+    <t>89 - Saco</t>
+  </si>
+  <si>
+    <t>Saco Material: Plástico, Tipo Uso: Fichário, Altura: 33CM, Largura: 23CM, Transmitância: Transparente, Aplicação: Acondicionamento, Características Adicionais: Sem Furo, Cor: Incolor</t>
+  </si>
+  <si>
+    <t>90 - Formulário Contínuo</t>
+  </si>
+  <si>
+    <t>Formulário Contínuo Tipo Papel: Sulfite Alcalino, Quantidade Colunas: 80 Colunas, Quantidade Vias: 3 Vias, Gramatura: 56 G/M², Tamanho: 240 X 140 Mm, Modelo: Razão - Sem Impressão, Tipo Carbono: Carbonado</t>
+  </si>
+  <si>
+    <t>91 - Giz pastel</t>
+  </si>
+  <si>
+    <t>Giz Pastel Material: Pigmento Em Pó, Apresentação: Bastão, Cor: Branco, Tipo: Fosco</t>
+  </si>
+  <si>
+    <t>92 - Giz pastel</t>
+  </si>
+  <si>
+    <t>Giz Pastel Material: Pigmento Em Pó, Apresentação: Bastão, Cor: Variada, Tipo: Fosco</t>
+  </si>
+  <si>
+    <t>93 - Giz pastel</t>
+  </si>
+  <si>
+    <t>94 - Glitter</t>
+  </si>
+  <si>
+    <t>Glitter Material: Pvc - Cloreto De Polivinila, Aspecto Físico: Partículas Metalizadas, Cor: Sortida, Aplicação: Decoração/Roupa/Artesanato/Fantasia/Flor E Isopor</t>
+  </si>
+  <si>
+    <t>Pacote 500,00 G</t>
+  </si>
+  <si>
+    <t>95 - Mina grafite</t>
+  </si>
+  <si>
+    <t>Mina Grafite Material: Grafita, Diâmetro: 0,70MM, Comprimento: 100MM, Dureza: B</t>
+  </si>
+  <si>
+    <t>96 - Grampeador</t>
+  </si>
+  <si>
+    <t>Grampeador Tratamento Superficial: Epoxi, Material: Metal, Tipo: Mesa, Capacidade: 240FL, Aplicação: Papel</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>97 - Grampeador</t>
+  </si>
+  <si>
+    <t>Grampeador Material: Metal, Tipo: Profissional, Capacidade: 100FL, Tamanho Grampo: 23/6, 23/8, 23/10, E 23/13, Características Adicionais: Ajuste De Profundidade/Base Emborrachada</t>
+  </si>
+  <si>
+    <t>98 - Grampeador</t>
+  </si>
+  <si>
+    <t>Grampeador Tratamento Superficial: Pintado/Cromado, Material: Metal, Tipo: Profissional, Capacidade: 50FL, Tamanho Grampo: 26/6</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>99 - Grampeador</t>
+  </si>
+  <si>
+    <t>Grampeador Material: Metal, Tipo: Mesa, Capacidade: 30FL, Tamanho Grampo: 23/6 E 26/6</t>
+  </si>
+  <si>
+    <t>100 - Grampo Trilho Encadernador</t>
+  </si>
+  <si>
+    <t>Grampo Trilho Encadernador Material: Latão, Comprimento: 80MM, Tipo: Lingueta, Aplicação: Fixação Folhas Em Processos, Tipo Espelho: Lingueta</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Caixa 50,00 UN</t>
+  </si>
+  <si>
+    <t>101 - Grampo Grampeador</t>
+  </si>
+  <si>
+    <t>Grampo Grampeador Material: Metal, Tratamento Superficial: Galvanizado, Tamanho: 23/10, Uso: Grampeador Elétrico, Características Adicionais: 157 Grampos Por Pente</t>
+  </si>
+  <si>
+    <t>Caixa 1000,00 UN</t>
+  </si>
+  <si>
+    <t>102 - Grampo Grampeador</t>
+  </si>
+  <si>
+    <t>Grampo Grampeador Material: Metal, Tratamento Superficial: Galvanizado, Tamanho: 23/8</t>
+  </si>
+  <si>
+    <t>103 - Grampo Pasta</t>
+  </si>
+  <si>
+    <t>Grampo Pasta Material: Aço Estanhado, Apresentação: Trilho, Características Adicionais: Capacidade 300 Fl Papel 750/M2/Comprim. Haste 50mm</t>
+  </si>
+  <si>
+    <t>104 - Grampo grampeador</t>
+  </si>
+  <si>
+    <t>Grampo Grampeador Material: Metal, Tratamento Superficial: Galvanizado, Tamanho: 23/13</t>
+  </si>
+  <si>
+    <t>Caixa 5000,00 UN</t>
+  </si>
+  <si>
+    <t>105 - Grampo Grampeador</t>
+  </si>
+  <si>
+    <t>Grampo Grampeador Material: Metal, Tratamento Superficial: Galvanizado, Tamanho: 26/6</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>106 - Lacre segurança</t>
+  </si>
+  <si>
+    <t>Lacre Segurança Material: Plástico, Comprimento: 23CM, Aplicação: Fechamento De Malotes, Tipo: Espinha De Peixe, Características Adicionais: Numerado</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>107 - Lápis preto</t>
+  </si>
+  <si>
+    <t>Lápis Preto Material Corpo: Madeira, Diâmetro Carga: 2MM, Dureza Carga: Hb, Formato Corpo: Sextavado, Material Carga: Grafite</t>
+  </si>
+  <si>
+    <t>838</t>
+  </si>
+  <si>
+    <t>108 - Lapiseira</t>
+  </si>
+  <si>
+    <t>Lapiseira Material: Metal, Diâmetro Carga: 0,7MM</t>
+  </si>
+  <si>
+    <t>109 - Livro ata</t>
+  </si>
+  <si>
+    <t>Livro Ata Material: Papel Reciclado, Quantidade Folhas: 200UN, Comprimento: 320MM, Largura: 216MM, Características Adicionais: Capa Dura Na Cor Preta, Costurado, Sem Margem</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>110 - Livro de ponto</t>
+  </si>
+  <si>
+    <t>Livro De Ponto Quantidade Folhas: 200, Tipo Capa: Dura, Cor Capa: Preta, Comprimento: 320MM, Largura: 220MM, Material: Papel Alcalino, Características Adicionais: 30 Pautas Por Páginas, Gramatura: 75G/M2</t>
+  </si>
+  <si>
+    <t>111 - Livro protocolo</t>
+  </si>
+  <si>
+    <t>Livro Protocolo Quantidade Folhas: 100UN, Comprimento: 230MM, Largura: 160MM, Tipo Capa: Dura, Características  Adicionais: Com Espiral, Folhas Numeradas Sequencialmente, Imp, Material Capa: Papelão Duro, Material Folhas: Papel Off-Set</t>
+  </si>
+  <si>
+    <t>112 - Livro ata</t>
+  </si>
+  <si>
+    <t>Livro Ata Material: Papel Off-Set, Quantidade Folhas: 100UN, Gramatura: 90G/M2, Comprimento: 320MM, Largura: 220MM, Características Adicionais: Capa Dura/Papelão/Preta/Folhas Numeradas  Pautadas</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>113 - Lixeira</t>
+  </si>
+  <si>
+    <t>Lixeira Material: Pvc, Capacidade: 9L, Cor: Preta, Diâmetro: 23CM, Altura: 29CM</t>
+  </si>
+  <si>
+    <t>114 - Pincel marcador permanente cd</t>
+  </si>
+  <si>
+    <t>Pincel Marcador Permanente Cd Material: Plástico, Tipo Ponta: Poliéster, Cor Tinta: Preta, Características Adicionais: Ponta 2mm</t>
+  </si>
+  <si>
+    <t>115 - Molha-Dedos</t>
+  </si>
+  <si>
+    <t>Molha-Dedos Material Base: Plástico, Material Tampa: Plástico, Material Carga: Creme Atóxico, Validade Carga: 1 Ano, Características Adicionais: Não Contém Glicerina E Não Mancha, Composição: Ácido Graxo, Glicóies E Essências</t>
+  </si>
+  <si>
+    <t>Embalagem 12,00 G</t>
+  </si>
+  <si>
+    <t>116 - Papel correspondência</t>
+  </si>
+  <si>
+    <t>Papel Correspondência Tipo Papel: Papel Sulfite, Gramatura: 75G/M2, Cor: Extrabranca, Comprimento: 297MM, Largura: 210MM</t>
+  </si>
+  <si>
+    <t>932</t>
+  </si>
+  <si>
+    <t>Pacote 500,00 FL</t>
+  </si>
+  <si>
+    <t>117 - Papel cartão</t>
+  </si>
+  <si>
+    <t>Papel Cartão Material: Celulose Vegetal, Gramatura: 250G/M2, Largura: 770MM, Comprimento: 1130MM, Características Adicionais: Duplex</t>
+  </si>
+  <si>
+    <t>118 - Papel cartão</t>
+  </si>
+  <si>
+    <t>Papel Cartão Material: Celulose Vegetal, Gramatura: 240G/M2, Largura: 50CM, Cor: Variada, Comprimento: 70CM</t>
+  </si>
+  <si>
+    <t>119 - Papel auto-adesivo</t>
+  </si>
+  <si>
+    <t>Papel Auto-Adesivo Material: Plástico, Cor: Transparente, Comprimento: 25M, Largura: 450MM, Características Adicionais: Tipo/Contact, Acabamento Superficial: Brilhante</t>
+  </si>
+  <si>
+    <t>Rolo</t>
+  </si>
+  <si>
+    <t>120 - Papel flip chart</t>
+  </si>
+  <si>
+    <t>Papel Flip Chart Material: Celulose Vegetal, Gramatura: 75G/M2, Dimensões: 640 X 880MM, Cor: Branca</t>
+  </si>
+  <si>
+    <t>121 - Papel Fotográfico</t>
+  </si>
+  <si>
+    <t>Papel Fotográfico Tipo: Glossy Brilhante, Largura: 210MM, Comprimento: 297MM, Gramatura: 180G/M2, Compatibilidade: Impressora Jato De Tinta / Laser</t>
+  </si>
+  <si>
+    <t>Caixa 50,00 FL</t>
+  </si>
+  <si>
+    <t>122 - Papel pardo</t>
+  </si>
+  <si>
+    <t>Papel Pardo Material: Celulose Vegetal, Tipo Papel: Reciclado, Comprimento: 96CM, Largura: 66CM, Gramatura: 80G/M2</t>
+  </si>
+  <si>
+    <t>123 - Papel Para Impressão Formatado</t>
+  </si>
+  <si>
+    <t>Papel Para Impressão Formatado Tipo: Sulfite/Apergaminhado/Ofício, Tamanho (C X L): 297 X 210MM, Gramatura: 75G/M2, Cor: Branco</t>
   </si>
   <si>
     <t>Embalagem 500,00 FL</t>
   </si>
   <si>
-    <t>28 - Régua escritório</t>
-  </si>
-  <si>
-    <t>Régua Escritório Material: Acrílico, Comprimento: 30CM, Graduação: Centímetro/Milímetro, Tipo Material: Rígido, Cor: Cristal, Transmitância: Transparente</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>3,44</t>
-  </si>
-  <si>
-    <t>51 - Bateria não recarregável</t>
-  </si>
-  <si>
-    <t>Bateria Não Recarregável Tipo: Alcalina, Aplicação: Aparelho Eletro-Eletrônico, Voltagem: 9V</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>10,33</t>
-  </si>
-  <si>
-    <t>52 - Pilha</t>
+    <t>124 - Papel pardo</t>
+  </si>
+  <si>
+    <t>125 - Papel Vergê</t>
+  </si>
+  <si>
+    <t>Papel Vergê Material: Celulose Vegetal, Cor: Branca, Gramatura: 240G/M2, Dimensões: 210x297MM</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>126 - Pasta arquivo</t>
+  </si>
+  <si>
+    <t>Pasta Arquivo Material: Papelão Prensado Com Revestimento Em Polipropileno, Tipo: Az, Largura: 285MM, Altura: 345MM, Lombada: 70MM, Cor: Preta, Características Adicionais 3: Ferragem Alavanca Metal Niquelado, Bolsa Plástica</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>127 - Pasta Arquivo</t>
+  </si>
+  <si>
+    <t>Pasta Arquivo Material: Papelão, Largura: 240MM, Altura: 345MM, Características Adicionais 1: Com Ferragem, 2 Tubos, Zincada, Polida,  Visor Lom</t>
+  </si>
+  <si>
+    <t>128 - Pasta arquivo</t>
+  </si>
+  <si>
+    <t>Pasta Arquivo Material: Cartolina Plastificada, Tipo: Abas E Elástico, Cor: Variada, Gramatura: 180G/M2, Tamanho: Ofício</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>129 - Pasta arquivo</t>
+  </si>
+  <si>
+    <t>Pasta Arquivo Material: Cartão Duplo, Largura: 240MM, Altura: 350MM, Gramatura: 480G/M2, Aplicação: Arquivo De Documento, Características Adicionais 2: Grampo Plástico</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>130 - Pasta arquivo</t>
+  </si>
+  <si>
+    <t>Pasta Arquivo Material: Papelão Revestido De Pvc, Tipo: Catálogo, Largura: 255MM, Altura: 350MM, Cor: Preta, Características Adicionais: 50 Sacos De 4 Furos</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>131 - Pasta arquivo</t>
+  </si>
+  <si>
+    <t>Pasta Arquivo Material: Cartão Duplo, Tipo: Classificadora, Largura: 230MM, Altura: 325MM, Cor: Variada, Gramatura: 480G/M2, Características Adicionais 2: Com Prendedor De Plástico</t>
+  </si>
+  <si>
+    <t>2700</t>
+  </si>
+  <si>
+    <t>132 - Pasta Arquivo</t>
+  </si>
+  <si>
+    <t>Pasta Arquivo Material: Plástico, Características Adicionais: Sem Aba E Elástico, Tamanho: Ofício, Aplicação: Armazenar Documentos E Impressos, Características Adicionais 3: Modelo "L" / Transparente</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>Pacote 10,00 UN</t>
+  </si>
+  <si>
+    <t>133 - Pasta arquivo</t>
+  </si>
+  <si>
+    <t>Pasta Arquivo Material: Plástico, Tipo: Catálogo, Largura: 245MM, Altura: 335MM, Lombada: 40MM, Cor: Preta, Características Adicionais 3: Conforme Modelo Do Órgão</t>
+  </si>
+  <si>
+    <t>134 - Pasta arquivo</t>
+  </si>
+  <si>
+    <t>Pasta Arquivo Material: Plástico Corrugado Flexível, Tipo: Abas E Elástico, Largura: 250MM, Altura: 350MM, Lombada: 55MM, Cor: Variada</t>
+  </si>
+  <si>
+    <t>135 - Pasta arquivo</t>
+  </si>
+  <si>
+    <t>Pasta Arquivo Material: Pvc, Tipo: Sanfonada, Largura: 240MM, Altura: 320MM, Cor: Fumê, Características Adicionais: 12 Divisões Com Abas E Elástico, Tamanho: A4</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>136 - Pasta arquivo</t>
+  </si>
+  <si>
+    <t>Pasta Arquivo Material: Cartão Marmorizado, Tipo: Suspensa, Largura: 365MM, Altura: 240MM, Lombada: 45MM, Cor: Parda, Gramatura: 350G/M2</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>137 - Memória portátil microcomputador</t>
+  </si>
+  <si>
+    <t>Memória Portátil Microcomputador Capacidade Memória: 64GB, Interface: Usb, Tipo: Pen Drive</t>
+  </si>
+  <si>
+    <t>138 - Percevejo</t>
+  </si>
+  <si>
+    <t>Percevejo Material: Metal, Tratamento Superficial: Niquelado, Tamanho: 10MM</t>
+  </si>
+  <si>
+    <t>Caixa 100,00 UN</t>
+  </si>
+  <si>
+    <t>139 - Perfurador papel</t>
+  </si>
+  <si>
+    <t>Perfurador Papel Material: Metal, Tipo: Mesa, Capacidade Perfuração: 30FL, Funcionamento: Manual, Características Adicionais: Com Marginador E Aparador, Quantidade Furos: 4UN</t>
+  </si>
+  <si>
+    <t>140 - Pilha</t>
+  </si>
+  <si>
+    <t>Pilha Tamanho: Pequena, Modelo: A23, Sistema Eletroquímico: Alcalina, Tensão Nominal: 12V</t>
+  </si>
+  <si>
+    <t>141 - Pilha</t>
+  </si>
+  <si>
+    <t>Pilha Tamanho: Pequena, Modelo: Aa, Características Adicionais: Não Recarregável, Sistema Eletroquímico: Alcalina, Tensão Nominal: 1,5V</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>142 - Pilha</t>
   </si>
   <si>
     <t>Pilha Tamanho: Palito, Modelo: Aaa, Características Adicionais: Não Recarregável, Sistema Eletroquímico: Alcalina, Tensão Nominal: 1,5V</t>
   </si>
   <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>7,03</t>
-  </si>
-  <si>
-    <t>Embalagem 2,00 UN</t>
-  </si>
-  <si>
-    <t>53 - Pilha</t>
-  </si>
-  <si>
-    <t>Pilha Tamanho: Pequena, Modelo: Aa, Características Adicionais: Não Recarregável, Sistema Eletroquímico: Alcalina, Tensão Nominal: 1,5V</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>7,32</t>
-  </si>
-  <si>
-    <t>59 - Lápis preto</t>
-  </si>
-  <si>
-    <t>Lápis Preto Material Corpo: Madeira, Diâmetro Carga: 2MM, Dureza Carga: Hb, Formato Corpo: Cilíndrico, Características Adicionais: Nº 2, Apontado, Material Carga: Grafite</t>
-  </si>
-  <si>
-    <t>488</t>
-  </si>
-  <si>
-    <t>0,74</t>
+    <t>1260</t>
+  </si>
+  <si>
+    <t>143 - Pincel atômico</t>
+  </si>
+  <si>
+    <t>Pincel Atômico Material: Plástico, Tipo Ponta: Feltro, Cor Tinta: Preta, Características Adicionais: Escrita Fina, Aplicação: Transparência</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>144 - Pincel quadro branco , magnético</t>
+  </si>
+  <si>
+    <t>Pincel Quadro Branco / Magnético Material: Plástico, Material Ponta: Fibra Sintética, Cor: Preta, Características Adicionais: Ponta Arredondada, Espessura Do Traço Aprox. 4,0mm</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>145 - Saco documento</t>
+  </si>
+  <si>
+    <t>Saco Documento Material: Polipropileno Cristal, Comprimento: 319MM, Largura: 240MM, Número Furos: 4, Espessura: 0,10MM, Características Adicionais: Transparente, Aplicação: Acondionamemto De Documentos</t>
+  </si>
+  <si>
+    <t>3200</t>
+  </si>
+  <si>
+    <t>146 - Plástico reprografia</t>
+  </si>
+  <si>
+    <t>Plástico Reprografia Material: Plástico, Comprimento: 297MM, Largura: 210MM, Aplicação: Plastificação De Documentos, Transmitância: Transparente</t>
+  </si>
+  <si>
+    <t>147 - Plástico reprografia</t>
+  </si>
+  <si>
+    <t>Plástico Reprografia Material: Plástico Polaseal, Comprimento: 99MM, Largura: 66MM, Espessura: 0,07MM, Aplicação: Plastificação</t>
+  </si>
+  <si>
+    <t>148 - Porta-papel</t>
+  </si>
+  <si>
+    <t>Porta-Papel Material: Acrílico, Dimensões: 115 X 335 X 235MM, Cor: Fume, Aplicação: Organizador Documentos</t>
+  </si>
+  <si>
+    <t>149 - Porta-lápis,clipe,lembrete</t>
+  </si>
+  <si>
+    <t>Porta-Lápis/Clipe/Lembrete Material: Polipropileno Reciclado, Cor: Fumê, Tipo: Conjugado, Características Adicionais: Tipo Escaninho Triplo, Laterais E Fundo Fechados,</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>150 - Prancheta portátil</t>
+  </si>
+  <si>
+    <t>Prancheta Portátil Material: Acrílico, Comprimento: 360MM, Largura: 260MM, Cor: Incolor, Características Adicionais: Com Prendedor Metal Parte Superior Central, Capaci</t>
+  </si>
+  <si>
+    <t>151 - Prendedor Papel</t>
+  </si>
+  <si>
+    <t>Prendedor Papel Material: Metal, Tipo: Mola, Tamanho Mola: 41MM</t>
+  </si>
+  <si>
+    <t>152 - Prendedor papel</t>
+  </si>
+  <si>
+    <t>Prendedor Papel Material: Metal, Tipo: Mola, Tamanho Mola: 51MM</t>
+  </si>
+  <si>
+    <t>153 - Quadro branco</t>
+  </si>
+  <si>
+    <t>Quadro Branco Material: Mdf, Acabamento Superficial Moldura: Anodizado, Cor Moldura: Branco, Finalidade: Anexar Avisos E Documentos, Largura: 90CM, Comprimento: 120CM, Material Moldura: Alumínio</t>
+  </si>
+  <si>
+    <t>154 - Régua escritório</t>
+  </si>
+  <si>
+    <t>Régua Escritório Material: Plástico, Comprimento: 30CM, Graduação: Centímetro, Cor: Incolor, Características Adicionais: P/ Portador De Deficiência Visual, Braille</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>155 - Rolete entintado</t>
+  </si>
+  <si>
+    <t>Rolete Entintado Cor Tinta: Preta E Vermelha, Aplicação: Calculadora Elgin Mr-6124, Modelo: Ir-40t</t>
+  </si>
+  <si>
+    <t>156 - Base fita adesiva</t>
+  </si>
+  <si>
+    <t>Base Fita Adesiva Material: Plástico Resistente, Tamanho: Pequeno, Cor: Bege, Comprimento: 110MM, Largura: 55MM, Altura: 50MM, Características Adicionais: Lâmina Corte Em Aço Inox Serrilhado, Com Roldana</t>
+  </si>
+  <si>
+    <t>157 - Tesoura</t>
+  </si>
+  <si>
+    <t>Tesoura Material: Aço Inoxidável, Material Cabo: Polipropileno, Comprimento: 30CM</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>158 - Tesoura</t>
+  </si>
+  <si>
+    <t>Tesoura Material: Aço Inoxidável, Material Cabo: Polipropileno, Comprimento: 13CM, Características Adicionais: Sem Ponta</t>
+  </si>
+  <si>
+    <t>159 - Tinta Para Carimbo</t>
+  </si>
+  <si>
+    <t>Tinta Para Carimbo Cor: Azul, Componentes: Base D'Água, Corante, Solventes E Aditivos, Capacidade Frasco: 42ML</t>
+  </si>
+  <si>
+    <t>Frasco 42,00 ML</t>
+  </si>
+  <si>
+    <t>160 - Tinta Para Carimbo</t>
+  </si>
+  <si>
+    <t>Tinta Para Carimbo Cor: Preta, Componentes: Base D'Água, Aspecto Físico: Líquido, Aplicação: Automático</t>
+  </si>
+  <si>
+    <t>161 - Tinta para carimbo</t>
+  </si>
+  <si>
+    <t>Tinta Para Carimbo Cor: Preta, Componentes: Base Glicerina, Aspecto Físico: Líquido, Aplicação: Almofada</t>
+  </si>
+  <si>
+    <t>Frasco 40,00 ML</t>
   </si>
 </sst>
 </file>
@@ -214,8 +1330,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,18 +1637,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="242" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.5" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -549,191 +1670,2258 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C14" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
+      <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>48</v>
       </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>51</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E12" t="s">
-        <v>9</v>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" t="s">
+        <v>167</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" t="s">
+        <v>167</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" t="s">
+        <v>171</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>172</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>174</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" t="s">
+        <v>178</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>179</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" t="s">
+        <v>181</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>182</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" t="s">
+        <v>184</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>185</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" t="s">
+        <v>167</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>189</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>194</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>197</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>199</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" t="s">
+        <v>124</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" t="s">
+        <v>124</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>205</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C76" t="s">
+        <v>124</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>207</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C77" t="s">
+        <v>209</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>210</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" t="s">
+        <v>212</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>213</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>215</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C80" t="s">
+        <v>217</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>218</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" t="s">
+        <v>220</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>221</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C82" t="s">
+        <v>160</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>223</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C83" t="s">
+        <v>225</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>226</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C84" t="s">
+        <v>42</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>228</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C85" t="s">
+        <v>143</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>230</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C86" t="s">
+        <v>232</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>233</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C87" t="s">
+        <v>191</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>235</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C88" t="s">
+        <v>237</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>238</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C89" t="s">
+        <v>240</v>
+      </c>
+      <c r="E89" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>242</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C90" t="s">
+        <v>58</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>244</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>246</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C92" t="s">
+        <v>124</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>248</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C93" t="s">
+        <v>124</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>250</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>251</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>254</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C96" t="s">
+        <v>78</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>256</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C97" t="s">
+        <v>258</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>259</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C98" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>261</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C99" t="s">
+        <v>263</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>264</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C100" t="s">
+        <v>124</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>266</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C101" t="s">
+        <v>268</v>
+      </c>
+      <c r="E101" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>270</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>273</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C103" t="s">
+        <v>78</v>
+      </c>
+      <c r="E103" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>275</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C104" t="s">
+        <v>191</v>
+      </c>
+      <c r="E104" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>277</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C105" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>280</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C106" t="s">
+        <v>282</v>
+      </c>
+      <c r="E106" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>283</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C107" t="s">
+        <v>285</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>286</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C108" t="s">
+        <v>288</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>289</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C109" t="s">
+        <v>78</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>291</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C110" t="s">
+        <v>293</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>294</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C111" t="s">
+        <v>152</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>296</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C112" t="s">
+        <v>209</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>298</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C113" t="s">
+        <v>300</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>301</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C114" t="s">
+        <v>124</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>303</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C115" t="s">
+        <v>143</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>305</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C116" t="s">
+        <v>73</v>
+      </c>
+      <c r="E116" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>308</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C117" t="s">
+        <v>310</v>
+      </c>
+      <c r="E117" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>312</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C118" t="s">
+        <v>171</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>314</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C119" t="s">
+        <v>171</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>316</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C120" t="s">
+        <v>191</v>
+      </c>
+      <c r="E120" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>319</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C121" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>321</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C122" t="s">
+        <v>152</v>
+      </c>
+      <c r="E122" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>324</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C123" t="s">
+        <v>143</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>326</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C124" t="s">
+        <v>78</v>
+      </c>
+      <c r="E124" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>329</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C125" t="s">
+        <v>109</v>
+      </c>
+      <c r="E125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>330</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C126" t="s">
+        <v>332</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>333</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C127" t="s">
+        <v>335</v>
+      </c>
+      <c r="E127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>336</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C128" t="s">
+        <v>109</v>
+      </c>
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>338</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C129" t="s">
+        <v>340</v>
+      </c>
+      <c r="E129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>341</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C130" t="s">
+        <v>343</v>
+      </c>
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>344</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C131" t="s">
+        <v>346</v>
+      </c>
+      <c r="E131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>347</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C132" t="s">
+        <v>349</v>
+      </c>
+      <c r="E132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>350</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C133" t="s">
+        <v>352</v>
+      </c>
+      <c r="E133" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>354</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>356</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C135" t="s">
+        <v>143</v>
+      </c>
+      <c r="E135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>358</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C136" t="s">
+        <v>360</v>
+      </c>
+      <c r="E136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>361</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C137" t="s">
+        <v>363</v>
+      </c>
+      <c r="E137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>364</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C138" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>366</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C139" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>369</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C140" t="s">
+        <v>225</v>
+      </c>
+      <c r="E140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>371</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C141" t="s">
+        <v>143</v>
+      </c>
+      <c r="E141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>373</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C142" t="s">
+        <v>375</v>
+      </c>
+      <c r="E142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>376</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C143" t="s">
+        <v>378</v>
+      </c>
+      <c r="E143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>379</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C144" t="s">
+        <v>381</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>382</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C145" t="s">
+        <v>384</v>
+      </c>
+      <c r="E145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>385</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C146" t="s">
+        <v>387</v>
+      </c>
+      <c r="E146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>388</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C147" t="s">
+        <v>109</v>
+      </c>
+      <c r="E147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>390</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C148" t="s">
+        <v>109</v>
+      </c>
+      <c r="E148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>392</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C149" t="s">
+        <v>20</v>
+      </c>
+      <c r="E149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>394</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C150" t="s">
+        <v>396</v>
+      </c>
+      <c r="E150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>397</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C151" t="s">
+        <v>109</v>
+      </c>
+      <c r="E151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>399</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C152" t="s">
+        <v>78</v>
+      </c>
+      <c r="E152" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>401</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C153" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>403</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C154" t="s">
+        <v>285</v>
+      </c>
+      <c r="E154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>405</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C155" t="s">
+        <v>407</v>
+      </c>
+      <c r="E155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>408</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C156" t="s">
+        <v>120</v>
+      </c>
+      <c r="E156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>410</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C157" t="s">
+        <v>20</v>
+      </c>
+      <c r="E157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>412</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C158" t="s">
+        <v>414</v>
+      </c>
+      <c r="E158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>415</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C159" t="s">
+        <v>124</v>
+      </c>
+      <c r="E159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>417</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C160" t="s">
+        <v>120</v>
+      </c>
+      <c r="E160" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>420</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C161" t="s">
+        <v>120</v>
+      </c>
+      <c r="E161" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>422</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C162" t="s">
+        <v>120</v>
+      </c>
+      <c r="E162" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
